--- a/powerbi/excel/Venta_Ingreso_Inversion_Clientes.xlsx
+++ b/powerbi/excel/Venta_Ingreso_Inversion_Clientes.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptoprepo\My-Projects\powerbi\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GITHUB\My-Projects\powerbi\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81EC86F-982C-47DA-BFB2-8AC3591B46B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{83DB9168-CD06-4684-ABEC-AF3379EB50E3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="NEGOCIO 250324" sheetId="1" r:id="rId1"/>
-    <sheet name="CLIENTES250324" sheetId="2" r:id="rId2"/>
+    <sheet name="Inversion_ganancia" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
   <si>
     <t>Venta</t>
   </si>
@@ -62,18 +61,6 @@
     <t>6 Buffalo Ranch Boneless</t>
   </si>
   <si>
-    <t>6b = 75</t>
-  </si>
-  <si>
-    <t>12b = 145</t>
-  </si>
-  <si>
-    <t>20b =235</t>
-  </si>
-  <si>
-    <t>30b = 329</t>
-  </si>
-  <si>
     <t>Orden de Papas</t>
   </si>
   <si>
@@ -122,23 +109,248 @@
     <t>Ganancia</t>
   </si>
   <si>
-    <t>UBICACION</t>
-  </si>
-  <si>
-    <t>NOMBRE DE CLIENTE</t>
-  </si>
-  <si>
-    <t>EDAD</t>
-  </si>
-  <si>
-    <t>PEDIDO</t>
+    <t>Mini hotcakes 2 Toppings</t>
+  </si>
+  <si>
+    <t>Hotcakes 2 Toppings</t>
+  </si>
+  <si>
+    <t>Waffle 1 Toppings</t>
+  </si>
+  <si>
+    <t>Waffle 2 Toppings</t>
+  </si>
+  <si>
+    <t>Crepa 2 Toppings</t>
+  </si>
+  <si>
+    <t>Crepa 3 Toppings</t>
+  </si>
+  <si>
+    <t>Fresas con crema 2 toppings</t>
+  </si>
+  <si>
+    <t>Fresas con crema 1 Topping</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Waffle 3 Toppings</t>
+  </si>
+  <si>
+    <t>Crepa 1 Toppings</t>
+  </si>
+  <si>
+    <t>23/03/2024</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Numero de Mes</t>
+  </si>
+  <si>
+    <t>crepas nutella</t>
+  </si>
+  <si>
+    <t>fresas con crema</t>
+  </si>
+  <si>
+    <t>wafflelechera</t>
+  </si>
+  <si>
+    <t>frappes oreo</t>
+  </si>
+  <si>
+    <t>crepas nutella,lechera</t>
+  </si>
+  <si>
+    <t>crepa cajeta, fresas, nuez</t>
+  </si>
+  <si>
+    <t>crepas cajera,hersheys</t>
+  </si>
+  <si>
+    <t>PRECIOS</t>
+  </si>
+  <si>
+    <t>24/03/2024</t>
+  </si>
+  <si>
+    <t>23/03/2025</t>
+  </si>
+  <si>
+    <t>Fresas con crema</t>
+  </si>
+  <si>
+    <t>Crepa nutella/Philadelphia</t>
+  </si>
+  <si>
+    <t>crepa nutella</t>
+  </si>
+  <si>
+    <t>12 Boneless</t>
+  </si>
+  <si>
+    <t>Fresas con crema PROMO$</t>
+  </si>
+  <si>
+    <t>frappe oreo,nutella PROMO$</t>
+  </si>
+  <si>
+    <t>25/03/2024</t>
+  </si>
+  <si>
+    <t>crepa nutella nuez</t>
+  </si>
+  <si>
+    <t>wafle nutella nuez</t>
+  </si>
+  <si>
+    <t>frappes promo oreo nutella</t>
+  </si>
+  <si>
+    <t>crepa philadelphia</t>
+  </si>
+  <si>
+    <t>6 boneless bbq</t>
+  </si>
+  <si>
+    <t>6 boneless mixto</t>
+  </si>
+  <si>
+    <t>6 boneless habanero</t>
+  </si>
+  <si>
+    <t>6 boneless buffalo</t>
+  </si>
+  <si>
+    <t>12 boneless buffalo</t>
+  </si>
+  <si>
+    <t>crepa nutella platano</t>
+  </si>
+  <si>
+    <t>Sams salsa bbq 4.3kg</t>
+  </si>
+  <si>
+    <t>Aderezo ranch Member's Mark 3.78L</t>
+  </si>
+  <si>
+    <t>Salsa picante Frank's RedHot 3.78L</t>
+  </si>
+  <si>
+    <t>Crema de Avellana Members Mark 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pechuga mariposa 15.580kg </t>
+  </si>
+  <si>
+    <t>Papa Ondulada</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Crema Lala</t>
+  </si>
+  <si>
+    <t>AZUCAR STDNU</t>
+  </si>
+  <si>
+    <t>PLATANO</t>
+  </si>
+  <si>
+    <t>Aceite Capilla 3</t>
+  </si>
+  <si>
+    <t>Leche Leon 3</t>
+  </si>
+  <si>
+    <t>Servilletas SOFT</t>
+  </si>
+  <si>
+    <t>Contenedor Papas</t>
+  </si>
+  <si>
+    <t>Gasto de Inversion</t>
+  </si>
+  <si>
+    <t>26/03/2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>crepa philadelphia/fresa</t>
+  </si>
+  <si>
+    <t>12 boneless buffalo/mango</t>
+  </si>
+  <si>
+    <t>12 boneless buffalo/bbq</t>
+  </si>
+  <si>
+    <t>waffle platano</t>
+  </si>
+  <si>
+    <t>20 boneless Bbq/buffalo</t>
+  </si>
+  <si>
+    <t>1 orden de papas</t>
+  </si>
+  <si>
+    <t>1 waffle lechera</t>
+  </si>
+  <si>
+    <t>20 boneless bbq habanero, buffaloranch</t>
+  </si>
+  <si>
+    <t>12 boneless bbq/habanero</t>
+  </si>
+  <si>
+    <t>fresas con crema hershey/oreo</t>
+  </si>
+  <si>
+    <t>waffle hersheys</t>
+  </si>
+  <si>
+    <t>6 boneless bbq /buffalo</t>
+  </si>
+  <si>
+    <t>12 boneless bbq/buffalo</t>
+  </si>
+  <si>
+    <t>20 boneless buffalo / bbq</t>
+  </si>
+  <si>
+    <t>frappe oreo</t>
+  </si>
+  <si>
+    <t>1 waffle nutella/nuez</t>
+  </si>
+  <si>
+    <t>1 waffle nutella platano</t>
+  </si>
+  <si>
+    <t>12 boneless bbq/bhabanero</t>
+  </si>
+  <si>
+    <t>envio borreguera</t>
+  </si>
+  <si>
+    <t>envio club bancario</t>
+  </si>
+  <si>
+    <t>12 boneless bbq / buffalo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +358,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Geometr415 Blk BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Geometr415 Blk BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,18 +418,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA17AA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E5E28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,21 +473,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,6 +615,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3E5E28"/>
+      <color rgb="FF192610"/>
+      <color rgb="FFA17AA4"/>
+      <color rgb="FFCD51B2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -508,156 +934,1736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939BDEA9-BC7F-45A2-9420-13728D52BB92}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>75</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>75</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>75</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>145</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>75</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>235</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>145</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>145</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>145</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>145</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>145</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>235</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>235</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>235</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>235</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>329</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <v>329</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>329</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>329</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>75</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>145</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B24" s="5">
+        <v>49</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
+        <v>58</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="E25" s="2">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
+        <v>29</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5">
+        <v>39</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>273</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5">
+        <v>49</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5">
+        <v>35</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>49</v>
+      </c>
+      <c r="F31" s="2">
+        <v>236</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2">
+        <v>312</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2">
+        <v>214</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>75</v>
+      </c>
+      <c r="F34" s="2">
+        <v>122</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1011</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15">
+        <v>75</v>
+      </c>
+      <c r="F36" s="2">
+        <v>133</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>75</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>145</v>
+      </c>
+      <c r="F38" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>27</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2">
+        <v>25</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15">
+        <v>235</v>
+      </c>
+      <c r="F41" s="2">
+        <v>95</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2">
+        <v>17</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2">
+        <v>301</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>75</v>
+      </c>
+      <c r="F45" s="15">
+        <v>750</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>145</v>
+      </c>
+      <c r="F46" s="15">
+        <v>54</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>145</v>
+      </c>
+      <c r="F47" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="G47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>39</v>
+      </c>
+      <c r="F48" s="15">
+        <v>42</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>235</v>
+      </c>
+      <c r="F49" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>38</v>
+      </c>
+      <c r="F50" s="15">
+        <v>140</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>39</v>
+      </c>
+      <c r="F51" s="15">
+        <v>38</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>235</v>
+      </c>
+      <c r="F52" s="15">
+        <v>5</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>145</v>
+      </c>
+      <c r="F53" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="G53" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>45</v>
+      </c>
+      <c r="F54" s="15">
+        <v>54</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15">
+        <v>39</v>
+      </c>
+      <c r="F55" s="15">
+        <v>8</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>82</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>145</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>38</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>235</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="15">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>35</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>49</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>49</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>75</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
+      <c r="F64" s="1"/>
+      <c r="G64" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>145</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>75</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -667,125 +2673,469 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBF74C-27B5-4068-9EBD-9E055EC8D377}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.90625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>236</v>
+      </c>
+      <c r="B2" s="28">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>312</v>
+      </c>
+      <c r="B3" s="28">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>214</v>
+      </c>
+      <c r="B4" s="28">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>122</v>
+      </c>
+      <c r="B5" s="28">
+        <v>145</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="28">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>133</v>
+      </c>
+      <c r="B7" s="28">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" s="28">
+        <v>235</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>82</v>
+      </c>
+      <c r="B9" s="28">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>27</v>
+      </c>
+      <c r="B10" s="28">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="28">
+        <v>235</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>95</v>
+      </c>
+      <c r="B12" s="28">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="B13" s="28">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>17</v>
+      </c>
+      <c r="B14" s="28">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>301</v>
+      </c>
+      <c r="B15" s="28">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="28">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="28">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="28">
+        <v>235</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="28">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="28">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="28">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="28">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="28">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="28">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="28">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>